--- a/Documentação/14. Matriz de Rastreabilidade (Necessidades x Características).xlsx
+++ b/Documentação/14. Matriz de Rastreabilidade (Necessidades x Características).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1901288\Desktop\EngenhariaDeSoftware\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1900045\Desktop\Hariel\EngenhariaDeSoftware\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -229,6 +229,56 @@
   <dxfs count="15">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -345,28 +395,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -377,21 +405,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -419,24 +437,6 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,29 +452,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A15:I25" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A15:I25" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A15:I25"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="#" dataDxfId="14"/>
-    <tableColumn id="2" name="Característica" dataDxfId="7"/>
-    <tableColumn id="3" name="N01" dataDxfId="6"/>
-    <tableColumn id="4" name="N02" dataDxfId="5"/>
-    <tableColumn id="5" name="N03" dataDxfId="4"/>
-    <tableColumn id="6" name="N04" dataDxfId="3"/>
-    <tableColumn id="7" name="N05" dataDxfId="2"/>
-    <tableColumn id="8" name="N06" dataDxfId="1"/>
-    <tableColumn id="9" name="N07" dataDxfId="0"/>
+    <tableColumn id="1" name="#" dataDxfId="12"/>
+    <tableColumn id="2" name="Característica" dataDxfId="11"/>
+    <tableColumn id="3" name="N01" dataDxfId="10"/>
+    <tableColumn id="4" name="N02" dataDxfId="9"/>
+    <tableColumn id="5" name="N03" dataDxfId="8"/>
+    <tableColumn id="6" name="N04" dataDxfId="7"/>
+    <tableColumn id="7" name="N05" dataDxfId="6"/>
+    <tableColumn id="8" name="N06" dataDxfId="5"/>
+    <tableColumn id="9" name="N07" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A5:B12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A5:B12" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A5:B12"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="#" dataDxfId="11"/>
-    <tableColumn id="2" name="Necessidades" dataDxfId="10"/>
+    <tableColumn id="1" name="#" dataDxfId="1"/>
+    <tableColumn id="2" name="Necessidades" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/Documentação/14. Matriz de Rastreabilidade (Necessidades x Características).xlsx
+++ b/Documentação/14. Matriz de Rastreabilidade (Necessidades x Características).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1900045\Desktop\Hariel\EngenhariaDeSoftware\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\317953\Desktop\Igor\FIX\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
   <si>
     <t>#</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Característica</t>
   </si>
   <si>
-    <t>Entrada e saída de produtos</t>
-  </si>
-  <si>
     <t>Fluxo de caixa</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>Gráficos Interativos de produtos mais vendidos Mensal/semestral/anual</t>
   </si>
   <si>
-    <t>Web / Mobile</t>
-  </si>
-  <si>
     <t>Super Usuário (ADMIN)</t>
   </si>
   <si>
@@ -56,9 +50,6 @@
     <t xml:space="preserve">Logs de Auditoria </t>
   </si>
   <si>
-    <t>Verificar Produtos mais comprados pelo cliente/ Oferecer desconto ou brindes baseado nas compras do cliente.</t>
-  </si>
-  <si>
     <t>Matriz de Rastreabilidade</t>
   </si>
   <si>
@@ -114,13 +105,55 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Entrada de produtos</t>
+  </si>
+  <si>
+    <t>Saida de Produtos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web </t>
+  </si>
+  <si>
+    <t>Verificar Produtos mais comprados pelo cliente</t>
+  </si>
+  <si>
+    <t>Cadastrar Cliente</t>
+  </si>
+  <si>
+    <t>Calendário</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Oferecer desconto ou brindes baseados nas compras do cliente.</t>
+  </si>
+  <si>
+    <t>Cadastro de Fornecedores</t>
+  </si>
+  <si>
+    <t>Cadastro de Orçamentos</t>
+  </si>
+  <si>
+    <t>Cadastro de Funcionário</t>
+  </si>
+  <si>
+    <t>Personalizar cores do software</t>
+  </si>
+  <si>
+    <t>Registrar Ponto</t>
+  </si>
+  <si>
+    <t>Gestão do Ponto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +206,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -200,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -222,6 +272,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,8 +515,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A15:I25" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A15:I25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A15:I36" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A15:I36"/>
   <tableColumns count="9">
     <tableColumn id="1" name="#" dataDxfId="12"/>
     <tableColumn id="2" name="Característica" dataDxfId="11"/>
@@ -483,7 +546,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -521,7 +584,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -593,7 +656,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -743,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I25"/>
+  <dimension ref="A2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:I25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,12 +821,12 @@
   <sheetData>
     <row r="2" spans="1:9" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B3" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -771,63 +834,63 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -838,25 +901,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -864,10 +927,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -881,16 +944,16 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -898,45 +961,45 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="11">
         <v>3</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="B18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>29</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -944,58 +1007,60 @@
         <v>5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="11">
         <v>6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="G21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>7</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H22" s="10"/>
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1003,33 +1068,35 @@
         <v>8</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="H23" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="11">
         <v>9</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="H24" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1037,19 +1104,212 @@
         <v>10</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>29</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>11</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>12</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>13</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>14</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>15</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>16</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>17</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>18</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>19</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>20</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>21</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
